--- a/downloads/funcao-procv-pesquisar-valores-excel.xlsx
+++ b/downloads/funcao-procv-pesquisar-valores-excel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Dropbox\Public\erredoze\postagens\funcao_procv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\websites\excelnaweb.github.io\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="EXEMPLO_2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$ &quot;#,##0.00"/>
   </numFmts>
@@ -872,7 +872,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Conector de seta reta 25"/>
+        <xdr:cNvPr id="26" name="Conector de seta reta 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -922,7 +928,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Conector angulado 17"/>
+        <xdr:cNvPr id="18" name="Conector angulado 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -977,7 +989,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Conector angulado 4"/>
+        <xdr:cNvPr id="5" name="Conector angulado 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1029,7 +1047,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector reto 10"/>
+        <xdr:cNvPr id="11" name="Conector reto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1080,7 +1104,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Conector reto 12"/>
+        <xdr:cNvPr id="13" name="Conector reto 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1131,7 +1161,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Conector de seta reta 15"/>
+        <xdr:cNvPr id="16" name="Conector de seta reta 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1183,7 +1219,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Conector reto 23"/>
+        <xdr:cNvPr id="24" name="Conector reto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1232,7 +1274,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Conector reto 26"/>
+        <xdr:cNvPr id="27" name="Conector reto 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1281,7 +1329,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Conector de seta reta 38"/>
+        <xdr:cNvPr id="39" name="Conector de seta reta 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1318,226 +1372,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44351</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Grupo 11"/>
+        <xdr:cNvPr id="17" name="Agrupar 16">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB9D285-52CF-462E-A569-9523B36173D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4505325" y="104775"/>
-          <a:ext cx="4581526" cy="2336800"/>
-          <a:chOff x="6648450" y="447675"/>
-          <a:chExt cx="4848225" cy="2409825"/>
+          <a:off x="5553075" y="228600"/>
+          <a:ext cx="3629025" cy="3311426"/>
+          <a:chOff x="5419724" y="628650"/>
+          <a:chExt cx="3629025" cy="3311426"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Retângulo de cantos arredondados 13">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Faça uma doação"/>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6648450" y="447675"/>
-            <a:ext cx="4848225" cy="2409825"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Este exemplo te Ajudou? Colabore Conosco!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Faça uma Doação!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ajude-nos a continuar ofertando conteúdo de qualidade </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>GRATUITAMENTE</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>. Ficaremos muito agradecidos pela sua contribuição voluntária de qualquer valor!</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="Imagem 14">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Faça uma doação"/>
+          <xdr:cNvPr id="19" name="Imagem 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7721AE66-F75C-4695-8C51-8584F5D805A5}"/>
+              </a:ext>
+            </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
@@ -1557,14 +1430,61 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8067675" y="2219325"/>
-            <a:ext cx="1990725" cy="457200"/>
+            <a:off x="5419724" y="1104900"/>
+            <a:ext cx="3629025" cy="2835176"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Retângulo 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC131790-B5F5-406B-96D7-3D4F26F13D28}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="628650"/>
+            <a:ext cx="3600450" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="1"/>
+              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1588,7 +1508,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Conector angulado 14"/>
+        <xdr:cNvPr id="15" name="Conector angulado 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1637,7 +1563,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector reto 2"/>
+        <xdr:cNvPr id="3" name="Conector reto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1686,7 +1618,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conector reto 5"/>
+        <xdr:cNvPr id="6" name="Conector reto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1735,7 +1673,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Conector de seta reta 7"/>
+        <xdr:cNvPr id="8" name="Conector de seta reta 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1785,7 +1729,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Conector de seta reta 11"/>
+        <xdr:cNvPr id="12" name="Conector de seta reta 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1835,7 +1785,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Conector de seta reta 13"/>
+        <xdr:cNvPr id="14" name="Conector de seta reta 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1887,7 +1843,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Conector de seta reta 21"/>
+        <xdr:cNvPr id="22" name="Conector de seta reta 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1924,226 +1886,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15776</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="Grupo 8"/>
+        <xdr:cNvPr id="13" name="Agrupar 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B447B100-17BD-4CCE-B362-824C89B934E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4448175" y="28575"/>
-          <a:ext cx="4581525" cy="2390775"/>
-          <a:chOff x="6648450" y="447675"/>
-          <a:chExt cx="4848225" cy="2409825"/>
+          <a:off x="5534025" y="238125"/>
+          <a:ext cx="3629025" cy="3311426"/>
+          <a:chOff x="5419724" y="628650"/>
+          <a:chExt cx="3629025" cy="3311426"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Retângulo de cantos arredondados 9">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Faça uma doação"/>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6648450" y="447675"/>
-            <a:ext cx="4848225" cy="2409825"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Este exemplo te Ajudou? Colabore Conosco!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Faça uma Doação!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ajude-nos a continuar ofertando conteúdo de qualidade </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>GRATUITAMENTE</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>. Ficaremos muito agradecidos pela sua contribuição voluntária de qualquer valor!</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="Imagem 10">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Faça uma doação"/>
+          <xdr:cNvPr id="16" name="Imagem 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EFB8B3-85EF-434E-A7F7-4D045D9548FE}"/>
+              </a:ext>
+            </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
@@ -2163,14 +1944,61 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8067675" y="2219325"/>
-            <a:ext cx="1990725" cy="457200"/>
+            <a:off x="5419724" y="1104900"/>
+            <a:ext cx="3629025" cy="2835176"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Retângulo 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F5FFF6-84B5-4614-82A9-58C44ACFDF64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="628650"/>
+            <a:ext cx="3600450" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="1"/>
+              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2180,7 +2008,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2218,7 +2046,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2253,6 +2081,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2288,9 +2133,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2467,7 +2329,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,7 +2515,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/downloads/funcao-procv-pesquisar-valores-excel.xlsx
+++ b/downloads/funcao-procv-pesquisar-valores-excel.xlsx
@@ -1370,124 +1370,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>44351</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="Agrupar 16">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB9D285-52CF-462E-A569-9523B36173D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5553075" y="228600"/>
-          <a:ext cx="3629025" cy="3311426"/>
-          <a:chOff x="5419724" y="628650"/>
-          <a:chExt cx="3629025" cy="3311426"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="19" name="Imagem 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7721AE66-F75C-4695-8C51-8584F5D805A5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5419724" y="1104900"/>
-            <a:ext cx="3629025" cy="2835176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Retângulo 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC131790-B5F5-406B-96D7-3D4F26F13D28}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5429250" y="628650"/>
-            <a:ext cx="3600450" cy="466725"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400" b="1"/>
-              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1882,124 +1764,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15776</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="Agrupar 12">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B447B100-17BD-4CCE-B362-824C89B934E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5534025" y="238125"/>
-          <a:ext cx="3629025" cy="3311426"/>
-          <a:chOff x="5419724" y="628650"/>
-          <a:chExt cx="3629025" cy="3311426"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="16" name="Imagem 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EFB8B3-85EF-434E-A7F7-4D045D9548FE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5419724" y="1104900"/>
-            <a:ext cx="3629025" cy="2835176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Retângulo 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F5FFF6-84B5-4614-82A9-58C44ACFDF64}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5429250" y="628650"/>
-            <a:ext cx="3600450" cy="466725"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400" b="1"/>
-              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2329,7 +2093,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
